--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.O1.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.O1.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDB025B-D62E-4A59-80FF-283F7FAC65DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBEA472-55A4-4C86-9F8A-621A00691106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hip Spring Table" sheetId="7" r:id="rId1"/>
-    <sheet name="3L4LT4ST.37T" sheetId="12" r:id="rId2"/>
-    <sheet name="2L5LT12ST.37T" sheetId="13" r:id="rId3"/>
-    <sheet name="2L5LT12ST.100I" sheetId="14" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="17" r:id="rId2"/>
+    <sheet name="2L3LT4ST.37T" sheetId="16" r:id="rId3"/>
+    <sheet name="3L4LT4ST.37T" sheetId="12" r:id="rId4"/>
+    <sheet name="2L5LT12ST.37T" sheetId="13" r:id="rId5"/>
+    <sheet name="2L5LT12ST.100I" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="58">
   <si>
     <t>unloaded</t>
   </si>
@@ -169,27 +171,6 @@
     <t>Spring Name</t>
   </si>
   <si>
-    <t>2L2LT4ST.37T</t>
-  </si>
-  <si>
-    <t>2L3LT4ST.37T</t>
-  </si>
-  <si>
-    <t>2L4LT4ST.37T</t>
-  </si>
-  <si>
-    <t>2L5LT4ST.37T</t>
-  </si>
-  <si>
-    <t>2L5LT2ST.37T</t>
-  </si>
-  <si>
-    <t>2L5LT8ST.37T</t>
-  </si>
-  <si>
-    <t>2L5LT12ST.37T</t>
-  </si>
-  <si>
     <t>2L2LT4ST.100I</t>
   </si>
   <si>
@@ -212,6 +193,39 @@
   </si>
   <si>
     <t>3L4LT4ST.37T</t>
+  </si>
+  <si>
+    <t>2L2LT4ST-37T</t>
+  </si>
+  <si>
+    <t>2L4LT4ST-37T</t>
+  </si>
+  <si>
+    <t>2L5LT2ST-37T</t>
+  </si>
+  <si>
+    <t>2L5LT4ST-37T</t>
+  </si>
+  <si>
+    <t>2L5LT8ST-37T</t>
+  </si>
+  <si>
+    <t>2L5LT12ST-37T</t>
+  </si>
+  <si>
+    <t>2L3LT4ST-37T</t>
+  </si>
+  <si>
+    <t>Pulley Radii</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>steve brunton</t>
+  </si>
+  <si>
+    <t>eigen system realization</t>
   </si>
 </sst>
 </file>
@@ -293,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,6 +345,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -340,13 +361,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,7 +416,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>3L4LT4ST Onyx One</a:t>
+              <a:t>2L5LT12ST</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -444,7 +461,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3L4LT4ST.37T'!$C$2:$E$2</c:f>
+              <c:f>'2L3LT4ST.37T'!$C$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -491,8 +508,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.36145300196850394"/>
-                  <c:y val="0.41647248026676925"/>
+                  <c:x val="-5.0118110236220474E-2"/>
+                  <c:y val="0.36995317613688844"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -527,90 +544,108 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('3L4LT4ST.37T'!$D$4:$D$6,'3L4LT4ST.37T'!$D$8:$D$10,'3L4LT4ST.37T'!$D$12:$D$14,'3L4LT4ST.37T'!$D$16:$D$18)</c:f>
+              <c:f>('2L3LT4ST.37T'!$D$4:$D$6,'2L3LT4ST.37T'!$D$8:$D$10,'2L3LT4ST.37T'!$D$12:$D$14,'2L3LT4ST.37T'!$D$16:$D$18,'2L3LT4ST.37T'!$D$20:$D$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3.1415926535897929E-3</c:v>
+                  <c:v>4.0666171571467881E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8397243543875251E-3</c:v>
+                  <c:v>4.2935099599060507E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9813170079773184E-3</c:v>
+                  <c:v>4.6076692252650299E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1415926535897929E-3</c:v>
+                  <c:v>5.2185344634630454E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1086523819801532E-3</c:v>
+                  <c:v>5.2185344634630454E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.948376736367677E-3</c:v>
+                  <c:v>5.8293997016610602E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.377580409572781E-3</c:v>
+                  <c:v>5.5152404363020817E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3038346126325149E-2</c:v>
+                  <c:v>6.597344572538566E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9968039870670144E-2</c:v>
+                  <c:v>8.5870199198121014E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5204027626653133E-2</c:v>
+                  <c:v>8.674286382411818E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.10053096491487337</c:v>
+                  <c:v>0.10890854532444617</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14730578886832141</c:v>
+                  <c:v>0.12810716709638378</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12740903539558607</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17331119472303691</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20629791758572977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('3L4LT4ST.37T'!$E$4:$E$6,'3L4LT4ST.37T'!$E$8:$E$10,'3L4LT4ST.37T'!$E$12:$E$14,'3L4LT4ST.37T'!$E$16:$E$18)</c:f>
+              <c:f>('2L3LT4ST.37T'!$E$4:$E$6,'2L3LT4ST.37T'!$E$8:$E$10,'2L3LT4ST.37T'!$E$12:$E$14,'2L3LT4ST.37T'!$E$16:$E$18,'2L3LT4ST.37T'!$E$20:$E$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2.4524878974075574E-2</c:v>
+                  <c:v>2.4504723838298687E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6787228812390591E-2</c:v>
+                  <c:v>3.6753597750779798E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9048804686099609E-2</c:v>
+                  <c:v>4.89979411263489E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9049757948151147E-2</c:v>
+                  <c:v>4.8983225973405847E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3573627255385771E-2</c:v>
+                  <c:v>7.3474838960108771E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8095145551742605E-2</c:v>
+                  <c:v>9.7933365972035738E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8096557502118945E-2</c:v>
+                  <c:v>9.795083812861731E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14711095066348176</c:v>
+                  <c:v>0.14682988127546251</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19604331158297392</c:v>
+                  <c:v>0.19547708527838739</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24499947023604926</c:v>
+                  <c:v>0.24432790811158425</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.36601760537199585</c:v>
+                  <c:v>0.3656954597929577</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.48518793733557797</c:v>
+                  <c:v>0.48648059433968621</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48652422409040957</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72472785377998183</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96019882355464536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -618,7 +653,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4E74-4167-B1F7-4622ABC87B2C}"/>
+              <c16:uniqueId val="{00000001-6EDA-4658-A02D-8C33C6B97DC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -627,7 +662,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3L4LT4ST.37T'!$F$2:$H$2</c:f>
+              <c:f>'2L3LT4ST.37T'!$F$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -674,8 +709,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.41278850885826773"/>
-                  <c:y val="0.20995292095085644"/>
+                  <c:x val="-0.51726644520997378"/>
+                  <c:y val="0.31568148678039271"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -710,90 +745,108 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('3L4LT4ST.37T'!$G$4:$G$6,'3L4LT4ST.37T'!$G$8:$G$10,'3L4LT4ST.37T'!$G$12:$G$14,'3L4LT4ST.37T'!$G$16:$G$18)</c:f>
+              <c:f>('2L3LT4ST.37T'!$G$4:$G$6,'2L3LT4ST.37T'!$G$8:$G$10,'2L3LT4ST.37T'!$G$12:$G$14,'2L3LT4ST.37T'!$G$16:$G$18,'2L3LT4ST.37T'!$G$20:$G$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6.9813170079773186E-4</c:v>
+                  <c:v>4.2935099599060507E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2689280275926286E-3</c:v>
+                  <c:v>5.2883476335428184E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1415926535897929E-3</c:v>
+                  <c:v>5.1312680008633288E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9813170079773186E-4</c:v>
+                  <c:v>5.0614548307835558E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2689280275926286E-3</c:v>
+                  <c:v>5.8992128717408339E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.377580409572781E-3</c:v>
+                  <c:v>6.4402649398590764E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4105206811824215E-3</c:v>
+                  <c:v>6.4402649398590764E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3038346126325149E-2</c:v>
+                  <c:v>7.52236907609556E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6128315516282622E-2</c:v>
+                  <c:v>8.674286382411818E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3038346126325149E-2</c:v>
+                  <c:v>9.2851516206098342E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.4299402871326118E-2</c:v>
+                  <c:v>0.11903145498601328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13124875974997358</c:v>
+                  <c:v>0.14643312424232427</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14119713648634125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18797196043978928</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23474678439323732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('3L4LT4ST.37T'!$H$4:$H$6,'3L4LT4ST.37T'!$H$8:$H$10,'3L4LT4ST.37T'!$H$12:$H$14,'3L4LT4ST.37T'!$H$16:$H$18)</c:f>
+              <c:f>('2L3LT4ST.37T'!$H$4:$H$6,'2L3LT4ST.37T'!$H$8:$H$10,'2L3LT4ST.37T'!$H$12:$H$14,'2L3LT4ST.37T'!$H$16:$H$18,'2L3LT4ST.37T'!$H$20:$H$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2.4524994023406466E-2</c:v>
+                  <c:v>2.4502398500519867E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6787405308382981E-2</c:v>
+                  <c:v>3.6736070884560018E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9049757948151147E-2</c:v>
+                  <c:v>4.8985440059889092E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9049988046812931E-2</c:v>
+                  <c:v>4.8987184469884336E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3574810616765962E-2</c:v>
+                  <c:v>7.34470140020268E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8096557502118945E-2</c:v>
+                  <c:v>9.7896625562990211E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8098564126848059E-2</c:v>
+                  <c:v>9.7896625562990211E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14711095066348176</c:v>
+                  <c:v>0.14673386452066961</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19607196839371022</c:v>
+                  <c:v>0.1954623264892674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24518491777246956</c:v>
+                  <c:v>0.24419355965414355</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.36656864241239406</c:v>
+                  <c:v>0.36527195947904639</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4862813266000936</c:v>
+                  <c:v>0.48525057786199838</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48561865904269624</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72278993201696839</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95409437750895576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -801,7 +854,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4E74-4167-B1F7-4622ABC87B2C}"/>
+              <c16:uniqueId val="{00000003-6EDA-4658-A02D-8C33C6B97DC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -928,7 +981,6 @@
         <c:axId val="285172559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1136,13 +1188,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1150,7 +1216,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
               <a:t>2L5LT12ST</a:t>
             </a:r>
           </a:p>
@@ -1168,13 +1241,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1196,7 +1283,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2L5LT12ST.37T'!$C$2:$E$2</c:f>
+              <c:f>'2L3LT4ST.37T'!$C$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1243,8 +1330,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.0118110236220474E-2"/>
-                  <c:y val="0.36995317613688844"/>
+                  <c:x val="-2.4720103346456693E-2"/>
+                  <c:y val="0.33418275147681981"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1279,61 +1366,61 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('2L5LT12ST.37T'!$D$4:$D$6,'2L5LT12ST.37T'!$D$8:$D$10,'2L5LT12ST.37T'!$D$12:$D$14,'2L5LT12ST.37T'!$D$16:$D$18,'2L5LT12ST.37T'!$D$20:$D$22)</c:f>
+              <c:f>('2L3LT4ST.37T'!$D$35:$D$37,'2L3LT4ST.37T'!$D$39:$D$41,'2L3LT4ST.37T'!$D$43:$D$45,'2L3LT4ST.37T'!$D$47:$D$49,'2L3LT4ST.37T'!$D$51:$D$53)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4.0666171571467881E-2</c:v>
+                  <c:v>5.2359877559830326E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2935099599060507E-2</c:v>
+                  <c:v>2.7925268031909296E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6076692252650299E-2</c:v>
+                  <c:v>5.9341194567807259E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2185344634630454E-2</c:v>
+                  <c:v>1.2042771838760881E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2185344634630454E-2</c:v>
+                  <c:v>1.2042771838760881E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8293997016610602E-2</c:v>
+                  <c:v>1.8151424220741029E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5152404363020817E-2</c:v>
+                  <c:v>1.500983156715124E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.597344572538566E-2</c:v>
+                  <c:v>2.5830872929516076E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5870199198121014E-2</c:v>
+                  <c:v>4.5727626402251434E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.674286382411818E-2</c:v>
+                  <c:v>4.66002910282486E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.10890854532444617</c:v>
+                  <c:v>6.8765972528576594E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12810716709638378</c:v>
+                  <c:v>8.7964594300514204E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.12740903539558607</c:v>
+                  <c:v>8.7266462599716474E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.17331119472303691</c:v>
+                  <c:v>0.13316862192716733</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.20629791758572977</c:v>
+                  <c:v>0.16615534478986016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('2L5LT12ST.37T'!$E$4:$E$6,'2L5LT12ST.37T'!$E$8:$E$10,'2L5LT12ST.37T'!$E$12:$E$14,'2L5LT12ST.37T'!$E$16:$E$18,'2L5LT12ST.37T'!$E$20:$E$22)</c:f>
+              <c:f>('2L3LT4ST.37T'!$E$4:$E$6,'2L3LT4ST.37T'!$E$8:$E$10,'2L3LT4ST.37T'!$E$12:$E$14,'2L3LT4ST.37T'!$E$16:$E$18,'2L3LT4ST.37T'!$E$20:$E$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1388,7 +1475,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7D37-46D4-B7BE-FA548D807A98}"/>
+              <c16:uniqueId val="{00000001-6BD7-43D9-98DA-B0333FC6476B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1397,7 +1484,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2L5LT12ST.37T'!$F$2:$H$2</c:f>
+              <c:f>'2L3LT4ST.37T'!$F$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1444,8 +1531,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.51726644520997378"/>
-                  <c:y val="0.31568148678039271"/>
+                  <c:x val="-0.37505474901574803"/>
+                  <c:y val="0.14949075130928463"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1480,61 +1567,61 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('2L5LT12ST.37T'!$G$4:$G$6,'2L5LT12ST.37T'!$G$8:$G$10,'2L5LT12ST.37T'!$G$12:$G$14,'2L5LT12ST.37T'!$G$16:$G$18,'2L5LT12ST.37T'!$G$20:$G$22)</c:f>
+              <c:f>('2L3LT4ST.37T'!$G$35:$G$37,'2L3LT4ST.37T'!$G$39:$G$41,'2L3LT4ST.37T'!$G$43:$G$45,'2L3LT4ST.37T'!$G$47:$G$49,'2L3LT4ST.37T'!$G$51:$G$53)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4.2935099599060507E-2</c:v>
+                  <c:v>2.7925268031909296E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2883476335428184E-2</c:v>
+                  <c:v>1.2740903539558606E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1312680008633288E-2</c:v>
+                  <c:v>1.1170107212763711E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0614548307835558E-2</c:v>
+                  <c:v>1.0471975511965978E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8992128717408339E-2</c:v>
+                  <c:v>1.8849555921538759E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4402649398590764E-2</c:v>
+                  <c:v>2.4260076602721184E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4402649398590764E-2</c:v>
+                  <c:v>2.4260076602721184E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.52236907609556E-2</c:v>
+                  <c:v>3.508111796508602E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.674286382411818E-2</c:v>
+                  <c:v>4.66002910282486E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.2851516206098342E-2</c:v>
+                  <c:v>5.2708943410228762E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11903145498601328</c:v>
+                  <c:v>7.88888821901437E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14643312424232427</c:v>
+                  <c:v>0.10629055144645468</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14119713648634125</c:v>
+                  <c:v>0.10105456369047168</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.18797196043978928</c:v>
+                  <c:v>0.1478293876439197</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.23474678439323732</c:v>
+                  <c:v>0.19460421159736771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('2L5LT12ST.37T'!$H$4:$H$6,'2L5LT12ST.37T'!$H$8:$H$10,'2L5LT12ST.37T'!$H$12:$H$14,'2L5LT12ST.37T'!$H$16:$H$18,'2L5LT12ST.37T'!$H$20:$H$22)</c:f>
+              <c:f>('2L3LT4ST.37T'!$H$4:$H$6,'2L3LT4ST.37T'!$H$8:$H$10,'2L3LT4ST.37T'!$H$12:$H$14,'2L3LT4ST.37T'!$H$16:$H$18,'2L3LT4ST.37T'!$H$20:$H$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1589,7 +1676,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7D37-46D4-B7BE-FA548D807A98}"/>
+              <c16:uniqueId val="{00000003-6BD7-43D9-98DA-B0333FC6476B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1923,6 +2010,1545 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>3L4LT4ST Onyx One</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3L4LT4ST.37T'!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.36145300196850394"/>
+                  <c:y val="0.41647248026676925"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('3L4LT4ST.37T'!$D$4:$D$6,'3L4LT4ST.37T'!$D$8:$D$10,'3L4LT4ST.37T'!$D$12:$D$14,'3L4LT4ST.37T'!$D$16:$D$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.1415926535897929E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8397243543875251E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9813170079773184E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1415926535897929E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1086523819801532E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.948376736367677E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.377580409572781E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3038346126325149E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9968039870670144E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5204027626653133E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10053096491487337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14730578886832141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('3L4LT4ST.37T'!$E$4:$E$6,'3L4LT4ST.37T'!$E$8:$E$10,'3L4LT4ST.37T'!$E$12:$E$14,'3L4LT4ST.37T'!$E$16:$E$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4524878974075574E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6787228812390591E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9048804686099609E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9049757948151147E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3573627255385771E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8095145551742605E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8096557502118945E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14711095066348176</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19604331158297392</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24499947023604926</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36601760537199585</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48518793733557797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E74-4167-B1F7-4622ABC87B2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3L4LT4ST.37T'!$F$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counter-Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.41278850885826773"/>
+                  <c:y val="0.20995292095085644"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('3L4LT4ST.37T'!$G$4:$G$6,'3L4LT4ST.37T'!$G$8:$G$10,'3L4LT4ST.37T'!$G$12:$G$14,'3L4LT4ST.37T'!$G$16:$G$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.9813170079773186E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2689280275926286E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1415926535897929E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9813170079773186E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2689280275926286E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.377580409572781E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4105206811824215E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3038346126325149E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6128315516282622E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3038346126325149E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.4299402871326118E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13124875974997358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('3L4LT4ST.37T'!$H$4:$H$6,'3L4LT4ST.37T'!$H$8:$H$10,'3L4LT4ST.37T'!$H$12:$H$14,'3L4LT4ST.37T'!$H$16:$H$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4524994023406466E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6787405308382981E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9049757948151147E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9049988046812931E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3574810616765962E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8096557502118945E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8098564126848059E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14711095066348176</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19607196839371022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24518491777246956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36656864241239406</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4862813266000936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4E74-4167-B1F7-4622ABC87B2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="369439439"/>
+        <c:axId val="285172559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="369439439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deflection</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (rad)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285172559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="285172559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Torque</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (N-m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369439439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2L5LT12ST</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2L5LT12ST.37T'!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0118110236220474E-2"/>
+                  <c:y val="0.36995317613688844"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('2L5LT12ST.37T'!$D$4:$D$6,'2L5LT12ST.37T'!$D$8:$D$10,'2L5LT12ST.37T'!$D$12:$D$14,'2L5LT12ST.37T'!$D$16:$D$18,'2L5LT12ST.37T'!$D$20:$D$22)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.0666171571467881E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2935099599060507E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6076692252650299E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2185344634630454E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2185344634630454E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8293997016610602E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5152404363020817E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.597344572538566E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5870199198121014E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.674286382411818E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10890854532444617</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12810716709638378</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12740903539558607</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17331119472303691</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20629791758572977</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('2L5LT12ST.37T'!$E$4:$E$6,'2L5LT12ST.37T'!$E$8:$E$10,'2L5LT12ST.37T'!$E$12:$E$14,'2L5LT12ST.37T'!$E$16:$E$18,'2L5LT12ST.37T'!$E$20:$E$22)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.4504723838298687E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6753597750779798E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.89979411263489E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8983225973405847E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3474838960108771E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7933365972035738E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.795083812861731E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14682988127546251</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19547708527838739</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24432790811158425</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3656954597929577</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48648059433968621</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48652422409040957</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72472785377998183</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96019882355464536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D37-46D4-B7BE-FA548D807A98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2L5LT12ST.37T'!$F$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counter-Clockwise Torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.51726644520997378"/>
+                  <c:y val="0.31568148678039271"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('2L5LT12ST.37T'!$G$4:$G$6,'2L5LT12ST.37T'!$G$8:$G$10,'2L5LT12ST.37T'!$G$12:$G$14,'2L5LT12ST.37T'!$G$16:$G$18,'2L5LT12ST.37T'!$G$20:$G$22)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.2935099599060507E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2883476335428184E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1312680008633288E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0614548307835558E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8992128717408339E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4402649398590764E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4402649398590764E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.52236907609556E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.674286382411818E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2851516206098342E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11903145498601328</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14643312424232427</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14119713648634125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18797196043978928</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23474678439323732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('2L5LT12ST.37T'!$H$4:$H$6,'2L5LT12ST.37T'!$H$8:$H$10,'2L5LT12ST.37T'!$H$12:$H$14,'2L5LT12ST.37T'!$H$16:$H$18,'2L5LT12ST.37T'!$H$20:$H$22)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.4502398500519867E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6736070884560018E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8985440059889092E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8987184469884336E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.34470140020268E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7896625562990211E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7896625562990211E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14673386452066961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1954623264892674</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24419355965414355</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36527195947904639</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48525057786199838</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48561865904269624</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72278993201696839</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95409437750895576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7D37-46D4-B7BE-FA548D807A98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="369439439"/>
+        <c:axId val="285172559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="369439439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deflection</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (rad)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285172559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="285172559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Torque</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (N-m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369439439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
               <a:lnSpc>
                 <a:spcPct val="100000"/>
@@ -2725,7 +4351,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3679,6 +5305,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5743,7 +7449,1120 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{185EF486-0F9E-4CB0-8B4C-1C173DDBD3C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A877E44-0392-4ED7-A28A-2DBA7DD16A6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5786,7 +8605,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5867,7 +8686,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6210,10 +9029,10 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6280,7 +9099,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2">
         <v>54</v>
@@ -6301,7 +9120,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="1">
-        <f>(B2-C2)/2</f>
+        <f t="shared" ref="H2:H16" si="0">(B2-C2)/2</f>
         <v>20</v>
       </c>
       <c r="I2" s="1">
@@ -6329,7 +9148,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2">
         <v>54</v>
@@ -6350,7 +9169,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="1">
-        <f>(B3-C3)/2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I3" s="1">
@@ -6358,7 +9177,7 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K8" si="0">J3</f>
+        <f t="shared" ref="K3:K8" si="1">J3</f>
         <v>0</v>
       </c>
       <c r="L3" s="2">
@@ -6375,7 +9194,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2">
         <v>54</v>
@@ -6396,7 +9215,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="1">
-        <f>(B4-C4)/2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I4" s="1">
@@ -6404,7 +9223,7 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
@@ -6421,7 +9240,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2">
         <v>54</v>
@@ -6442,7 +9261,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1">
-        <f>(B5-C5)/2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I5" s="1">
@@ -6450,7 +9269,7 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L5" s="2">
@@ -6467,7 +9286,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2">
         <v>54</v>
@@ -6488,7 +9307,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="1">
-        <f>(B6-C6)/2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I6" s="1">
@@ -6496,7 +9315,7 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L6" s="2">
@@ -6513,7 +9332,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2">
         <v>54</v>
@@ -6534,7 +9353,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="1">
-        <f>(B7-C7)/2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I7" s="1">
@@ -6542,7 +9361,7 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L7" s="2">
@@ -6558,55 +9377,55 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="18">
+      <c r="A8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="15">
         <v>54</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="15">
         <v>14</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="16">
         <v>2</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="16">
         <v>5</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="16">
         <v>12</v>
       </c>
-      <c r="H8" s="19">
-        <f>(B8-C8)/2</f>
+      <c r="H8" s="16">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="16">
         <v>1</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19">
-        <f t="shared" si="0"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="15">
         <v>2.4</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2">
         <v>54</v>
@@ -6627,7 +9446,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="1">
-        <f>(B9-C9)/2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I9" s="1">
@@ -6655,7 +9474,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2">
         <v>54</v>
@@ -6676,7 +9495,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="1">
-        <f>(B10-C10)/2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I10" s="1">
@@ -6684,7 +9503,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1">
-        <f t="shared" ref="K10:K15" si="1">J10</f>
+        <f t="shared" ref="K10:K15" si="2">J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="2">
@@ -6701,7 +9520,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2">
         <v>54</v>
@@ -6722,7 +9541,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="1">
-        <f>(B11-C11)/2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I11" s="1">
@@ -6730,7 +9549,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11" s="2">
@@ -6747,7 +9566,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2">
         <v>54</v>
@@ -6768,7 +9587,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="1">
-        <f>(B12-C12)/2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I12" s="1">
@@ -6776,7 +9595,7 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L12" s="2">
@@ -6793,7 +9612,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2">
         <v>54</v>
@@ -6814,7 +9633,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="1">
-        <f>(B13-C13)/2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I13" s="1">
@@ -6822,7 +9641,7 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L13" s="2">
@@ -6839,7 +9658,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2">
         <v>54</v>
@@ -6860,7 +9679,7 @@
         <v>8</v>
       </c>
       <c r="H14" s="1">
-        <f>(B14-C14)/2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I14" s="1">
@@ -6868,7 +9687,7 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14" s="2">
@@ -6884,55 +9703,55 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="18">
+      <c r="A15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="15">
         <v>54</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="15">
         <v>14</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="16">
         <v>2</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="16">
         <v>5</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="16">
         <v>12</v>
       </c>
-      <c r="H15" s="19">
-        <f>(B15-C15)/2</f>
+      <c r="H15" s="16">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="16">
         <v>1</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19">
-        <f t="shared" si="1"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="15">
         <v>2.4</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="20"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2">
         <v>54</v>
@@ -6953,7 +9772,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="1">
-        <f>(B16-C16)/2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I16" s="1">
@@ -6961,7 +9780,7 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1">
-        <f t="shared" ref="K16" si="2">J16</f>
+        <f t="shared" ref="K16" si="3">J16</f>
         <v>0</v>
       </c>
       <c r="L16" s="2">
@@ -6988,6 +9807,1501 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE4CACE-8930-4A19-BD8C-40BE91BF2E6C}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19FA51E-490B-4725-BCC2-B1DF887C599A}">
+  <dimension ref="A1:N56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="8" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="D4" s="5">
+        <f>RADIANS(C4)</f>
+        <v>4.0666171571467881E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <f>(A$4*9.81*COS(D4)*B4)/(1000*1000)</f>
+        <v>2.4504723838298687E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.46</v>
+      </c>
+      <c r="G4" s="5">
+        <f>RADIANS(F4)</f>
+        <v>4.2935099599060507E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <f>(A$4*9.81*COS(G4)*B4)/(1000*1000)</f>
+        <v>2.4502398500519867E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="2">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.46</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D25" si="0">RADIANS(C5)</f>
+        <v>4.2935099599060507E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" ref="E5:E6" si="1">(A$4*9.81*COS(D5)*B5)/(1000*1000)</f>
+        <v>3.6753597750779798E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.03</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G25" si="2">RADIANS(F5)</f>
+        <v>5.2883476335428184E-2</v>
+      </c>
+      <c r="H5" s="5">
+        <f>(A$4*9.81*COS(G5)*B5)/(1000*1000)</f>
+        <v>3.6736070884560018E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>4.6076692252650299E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>4.89979411263489E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="2"/>
+        <v>5.1312680008633288E-2</v>
+      </c>
+      <c r="H6" s="5">
+        <f>(A$4*9.81*COS(G6)*B6)/(1000*1000)</f>
+        <v>4.8985440059889092E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>3.1415926535897934E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <f>(A$4*9.81*COS(D7)*B7)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="2"/>
+        <v>8.377580409572781E-3</v>
+      </c>
+      <c r="H7" s="5">
+        <f>(A$4*9.81*COS(G7)*B7)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>100</v>
+      </c>
+      <c r="B8" s="2">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>5.2185344634630454E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <f>(A$8*9.81*COS(D8)*B8)/(1000*1000)</f>
+        <v>4.8983225973405847E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="2"/>
+        <v>5.0614548307835558E-2</v>
+      </c>
+      <c r="H8" s="5">
+        <f>(A$8*9.81*COS(G8)*B8)/(1000*1000)</f>
+        <v>4.8987184469884336E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="2">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>5.2185344634630454E-2</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" ref="E9:E11" si="3">(A$8*9.81*COS(D9)*B9)/(1000*1000)</f>
+        <v>7.3474838960108771E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.38</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="2"/>
+        <v>5.8992128717408339E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" ref="H9:H11" si="4">(A$8*9.81*COS(G9)*B9)/(1000*1000)</f>
+        <v>7.34470140020268E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>5.8293997016610602E-2</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="3"/>
+        <v>9.7933365972035738E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.69</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="2"/>
+        <v>6.4402649398590764E-2</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="4"/>
+        <v>9.7896625562990211E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>3.1415926535897929E-3</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0821041362364843E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>200</v>
+      </c>
+      <c r="B12" s="2">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.16</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5152404363020817E-2</v>
+      </c>
+      <c r="E12" s="5">
+        <f>(A$12*9.81*COS(D12)*B12)/(1000*1000)</f>
+        <v>9.795083812861731E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.69</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="2"/>
+        <v>6.4402649398590764E-2</v>
+      </c>
+      <c r="H12" s="5">
+        <f>(A$12*9.81*COS(G12)*B12)/(1000*1000)</f>
+        <v>9.7896625562990211E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="2">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>6.597344572538566E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" ref="E13:E15" si="5">(A$12*9.81*COS(D13)*B13)/(1000*1000)</f>
+        <v>0.14682988127546251</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="2"/>
+        <v>7.52236907609556E-2</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" ref="H13:H14" si="6">(A$12*9.81*COS(G13)*B13)/(1000*1000)</f>
+        <v>0.14673386452066961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="2">
+        <v>100</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.92</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>8.5870199198121014E-2</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="5"/>
+        <v>0.19547708527838739</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4.97</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="2"/>
+        <v>8.674286382411818E-2</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="6"/>
+        <v>0.1954623264892674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2217304763960306E-2</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="2"/>
+        <v>3.8397243543875251E-3</v>
+      </c>
+      <c r="H15" s="5">
+        <f>(A$12*9.81*COS(G15)*B15)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>500</v>
+      </c>
+      <c r="B16" s="2">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4.97</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>8.674286382411818E-2</v>
+      </c>
+      <c r="E16" s="5">
+        <f>(A$16*9.81*COS(D16)*B16)/(1000*1000)</f>
+        <v>0.24432790811158425</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5.32</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="2"/>
+        <v>9.2851516206098342E-2</v>
+      </c>
+      <c r="H16" s="5">
+        <f>(A$16*9.81*COS(G16)*B16)/(1000*1000)</f>
+        <v>0.24419355965414355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="2">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.10890854532444617</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" ref="E17:E18" si="7">(A$16*9.81*COS(D17)*B17)/(1000*1000)</f>
+        <v>0.3656954597929577</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6.82</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.11903145498601328</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" ref="H17:H19" si="8">(A$16*9.81*COS(G17)*B17)/(1000*1000)</f>
+        <v>0.36527195947904639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7.34</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.12810716709638378</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="7"/>
+        <v>0.48648059433968621</v>
+      </c>
+      <c r="F18" s="1">
+        <v>8.39</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14643312424232427</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="8"/>
+        <v>0.48525057786199838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>8.377580409572781E-3</v>
+      </c>
+      <c r="E19" s="5">
+        <f>(A$16*9.81*COS(D19)*B19)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-2.99</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="2"/>
+        <v>-5.2185344634630454E-2</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="B20" s="2">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.12740903539558607</v>
+      </c>
+      <c r="E20" s="5">
+        <f>(A$20*9.81*COS(D20)*B20)/(1000*1000)</f>
+        <v>0.48652422409040957</v>
+      </c>
+      <c r="F20" s="1">
+        <v>8.09</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14119713648634125</v>
+      </c>
+      <c r="H20" s="5">
+        <f>(A$20*9.81*COS(G20)*B20)/(1000*1000)</f>
+        <v>0.48561865904269624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="2">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9.93</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17331119472303691</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" ref="E21:E23" si="9">(A$20*9.81*COS(D21)*B21)/(1000*1000)</f>
+        <v>0.72472785377998183</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10.77</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="2"/>
+        <v>0.18797196043978928</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" ref="H21:H23" si="10">(A$20*9.81*COS(G21)*B21)/(1000*1000)</f>
+        <v>0.72278993201696839</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <v>4.9318999999999997</v>
+      </c>
+      <c r="N21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="2">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1">
+        <v>11.82</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>0.20629791758572977</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="9"/>
+        <v>0.96019882355464536</v>
+      </c>
+      <c r="F22" s="1">
+        <v>13.45</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.23474678439323732</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="10"/>
+        <v>0.95409437750895576</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22">
+        <v>5.5605000000000002</v>
+      </c>
+      <c r="N22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>1.6057029118347832E-2</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-4.3</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="2"/>
+        <v>-7.5049157835756164E-2</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="11">
+        <f>AVERAGE(M21:M22)</f>
+        <v>5.2462</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>50</v>
+      </c>
+      <c r="B35" s="2">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1">
+        <f>C4-2.3</f>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="D35" s="5">
+        <f>RADIANS(C35)</f>
+        <v>5.2359877559830326E-4</v>
+      </c>
+      <c r="E35" s="5">
+        <f>(A$4*9.81*COS(D35)*B35)/(1000*1000)</f>
+        <v>2.4524996638166079E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <f>F4-2.3</f>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="G35" s="5">
+        <f>RADIANS(F35)</f>
+        <v>2.7925268031909296E-3</v>
+      </c>
+      <c r="H35" s="5">
+        <f>(A$4*9.81*COS(G35)*B35)/(1000*1000)</f>
+        <v>2.4524904374561722E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="2">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" ref="C36:C54" si="11">C5-2.3</f>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" ref="D36:D54" si="12">RADIANS(C36)</f>
+        <v>2.7925268031909296E-3</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" ref="E36:E37" si="13">(A$4*9.81*COS(D36)*B36)/(1000*1000)</f>
+        <v>3.6787356561842587E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" ref="F36:F54" si="14">F5-2.3</f>
+        <v>0.73</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" ref="G36:G54" si="15">RADIANS(F36)</f>
+        <v>1.2740903539558606E-2</v>
+      </c>
+      <c r="H36" s="5">
+        <f>(A$4*9.81*COS(G36)*B36)/(1000*1000)</f>
+        <v>3.6784514171494399E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="2">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="11"/>
+        <v>0.3400000000000003</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="12"/>
+        <v>5.9341194567807259E-3</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="13"/>
+        <v>4.9049136384733606E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="14"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="15"/>
+        <v>1.1170107212763711E-2</v>
+      </c>
+      <c r="H37" s="5">
+        <f>(A$4*9.81*COS(G37)*B37)/(1000*1000)</f>
+        <v>4.9046940015803286E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="11"/>
+        <v>-0.49999999999999978</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="12"/>
+        <v>-8.7266462599716443E-3</v>
+      </c>
+      <c r="E38" s="5">
+        <f>(A$4*9.81*COS(D38)*B38)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="14"/>
+        <v>-1.8199999999999998</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="15"/>
+        <v>-3.1764992386296792E-2</v>
+      </c>
+      <c r="H38" s="5">
+        <f>(A$4*9.81*COS(G38)*B38)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>100</v>
+      </c>
+      <c r="B39" s="2">
+        <v>50</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="11"/>
+        <v>0.69000000000000039</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="12"/>
+        <v>1.2042771838760881E-2</v>
+      </c>
+      <c r="E39" s="5">
+        <f>(A$8*9.81*COS(D39)*B39)/(1000*1000)</f>
+        <v>4.9046443222615373E-2</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="14"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="15"/>
+        <v>1.0471975511965978E-2</v>
+      </c>
+      <c r="H39" s="5">
+        <f>(A$8*9.81*COS(G39)*B39)/(1000*1000)</f>
+        <v>4.9047310557378369E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="2">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="11"/>
+        <v>0.69000000000000039</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="12"/>
+        <v>1.2042771838760881E-2</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" ref="E40:E42" si="16">(A$8*9.81*COS(D40)*B40)/(1000*1000)</f>
+        <v>7.3569664833923062E-2</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="14"/>
+        <v>1.08</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="15"/>
+        <v>1.8849555921538759E-2</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" ref="H40:H42" si="17">(A$8*9.81*COS(G40)*B40)/(1000*1000)</f>
+        <v>7.3561929576418023E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="2">
+        <v>100</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="11"/>
+        <v>1.04</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="12"/>
+        <v>1.8151424220741029E-2</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="16"/>
+        <v>9.8083839734135647E-2</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="14"/>
+        <v>1.3900000000000001</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="15"/>
+        <v>2.4260076602721184E-2</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="17"/>
+        <v>9.8071132973764616E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="11"/>
+        <v>-2.1199999999999997</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="12"/>
+        <v>-3.7000980142279781E-2</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="14"/>
+        <v>-1.6799999999999997</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="15"/>
+        <v>-2.932153143350473E-2</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="18">
+        <v>200</v>
+      </c>
+      <c r="B43" s="2">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="11"/>
+        <v>0.86000000000000032</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="12"/>
+        <v>1.500983156715124E-2</v>
+      </c>
+      <c r="E43" s="5">
+        <f>(A$12*9.81*COS(D43)*B43)/(1000*1000)</f>
+        <v>9.8088949485578961E-2</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="14"/>
+        <v>1.3900000000000001</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="15"/>
+        <v>2.4260076602721184E-2</v>
+      </c>
+      <c r="H43" s="5">
+        <f>(A$12*9.81*COS(G43)*B43)/(1000*1000)</f>
+        <v>9.8071132973764616E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="2">
+        <v>75</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="11"/>
+        <v>1.48</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="12"/>
+        <v>2.5830872929516076E-2</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" ref="E44:E46" si="18">(A$12*9.81*COS(D44)*B44)/(1000*1000)</f>
+        <v>0.14710091098830136</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="14"/>
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="15"/>
+        <v>3.508111796508602E-2</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" ref="H44:H45" si="19">(A$12*9.81*COS(G44)*B44)/(1000*1000)</f>
+        <v>0.14705946164898706</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="2">
+        <v>100</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="11"/>
+        <v>2.62</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="12"/>
+        <v>4.5727626402251434E-2</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="18"/>
+        <v>0.19599490708985937</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="14"/>
+        <v>2.67</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" si="15"/>
+        <v>4.66002910282486E-2</v>
+      </c>
+      <c r="H45" s="5">
+        <f t="shared" si="19"/>
+        <v>0.19598700585194165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="11"/>
+        <v>-1.5999999999999999</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="12"/>
+        <v>-2.792526803190927E-2</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="14"/>
+        <v>-2.0799999999999996</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="15"/>
+        <v>-3.6302848441482051E-2</v>
+      </c>
+      <c r="H46" s="5">
+        <f>(A$12*9.81*COS(G46)*B46)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
+        <v>500</v>
+      </c>
+      <c r="B47" s="2">
+        <v>50</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="11"/>
+        <v>2.67</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="12"/>
+        <v>4.66002910282486E-2</v>
+      </c>
+      <c r="E47" s="5">
+        <f>(A$16*9.81*COS(D47)*B47)/(1000*1000)</f>
+        <v>0.24498375731492705</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="14"/>
+        <v>3.0200000000000005</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="15"/>
+        <v>5.2708943410228762E-2</v>
+      </c>
+      <c r="H47" s="5">
+        <f>(A$16*9.81*COS(G47)*B47)/(1000*1000)</f>
+        <v>0.24490939808017623</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="2">
+        <v>75</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="11"/>
+        <v>3.9400000000000004</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="12"/>
+        <v>6.8765972528576594E-2</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" ref="E48:E49" si="20">(A$16*9.81*COS(D48)*B48)/(1000*1000)</f>
+        <v>0.36700554659617668</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="14"/>
+        <v>4.5200000000000005</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="15"/>
+        <v>7.88888821901437E-2</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" ref="H48:H50" si="21">(A$16*9.81*COS(G48)*B48)/(1000*1000)</f>
+        <v>0.36673086666768828</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="2">
+        <v>100</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="11"/>
+        <v>5.04</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="12"/>
+        <v>8.7964594300514204E-2</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="20"/>
+        <v>0.48860353528472611</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="14"/>
+        <v>6.0900000000000007</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="15"/>
+        <v>0.10629055144645468</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" si="21"/>
+        <v>0.48773185126595264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="11"/>
+        <v>-1.8199999999999998</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="12"/>
+        <v>-3.1764992386296792E-2</v>
+      </c>
+      <c r="E50" s="5">
+        <f>(A$16*9.81*COS(D50)*B50)/(1000*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="14"/>
+        <v>-5.29</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" si="15"/>
+        <v>-9.2327917430500034E-2</v>
+      </c>
+      <c r="H50" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="18">
+        <v>1000</v>
+      </c>
+      <c r="B51" s="2">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="12"/>
+        <v>8.7266462599716474E-2</v>
+      </c>
+      <c r="E51" s="5">
+        <f>(A$20*9.81*COS(D51)*B51)/(1000*1000)</f>
+        <v>0.48863349941400119</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="14"/>
+        <v>5.79</v>
+      </c>
+      <c r="G51" s="5">
+        <f t="shared" si="15"/>
+        <v>0.10105456369047168</v>
+      </c>
+      <c r="H51" s="5">
+        <f>(A$20*9.81*COS(G51)*B51)/(1000*1000)</f>
+        <v>0.487997631515872</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="2">
+        <v>75</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="11"/>
+        <v>7.63</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="12"/>
+        <v>0.13316862192716733</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" ref="E52:E54" si="22">(A$20*9.81*COS(D52)*B52)/(1000*1000)</f>
+        <v>0.7292357836126333</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="14"/>
+        <v>8.4699999999999989</v>
+      </c>
+      <c r="G52" s="5">
+        <f t="shared" si="15"/>
+        <v>0.1478293876439197</v>
+      </c>
+      <c r="H52" s="5">
+        <f t="shared" ref="H52:H54" si="23">(A$20*9.81*COS(G52)*B52)/(1000*1000)</f>
+        <v>0.7277252634909529</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52">
+        <v>4.9318999999999997</v>
+      </c>
+      <c r="N52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="2">
+        <v>100</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="11"/>
+        <v>9.52</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="12"/>
+        <v>0.16615534478986016</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="22"/>
+        <v>0.96748959831716752</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="14"/>
+        <v>11.149999999999999</v>
+      </c>
+      <c r="G53" s="5">
+        <f t="shared" si="15"/>
+        <v>0.19460421159736771</v>
+      </c>
+      <c r="H53" s="5">
+        <f t="shared" si="23"/>
+        <v>0.96248292187328166</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53">
+        <v>5.5605000000000002</v>
+      </c>
+      <c r="N53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="11"/>
+        <v>-1.38</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="12"/>
+        <v>-2.4085543677521744E-2</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="14"/>
+        <v>-6.6</v>
+      </c>
+      <c r="G54" s="5">
+        <f t="shared" si="15"/>
+        <v>-0.11519173063162574</v>
+      </c>
+      <c r="H54" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54" s="11">
+        <f>AVERAGE(M52:M53)</f>
+        <v>5.2462</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1">
+        <v>43</v>
+      </c>
+      <c r="D56" s="6">
+        <f t="shared" ref="D56" si="24">RADIANS(C56)</f>
+        <v>0.75049157835756175</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1">
+        <v>43</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" ref="G56" si="25">RADIANS(F56)</f>
+        <v>0.75049157835756175</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BFBEE9-465E-4F2C-8228-998CAC6DC9BC}">
   <dimension ref="A1:N23"/>
   <sheetViews>
@@ -7002,30 +11316,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -7054,7 +11368,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="18">
         <v>50</v>
       </c>
       <c r="B4" s="2">
@@ -7084,7 +11398,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="2">
         <v>75</v>
       </c>
@@ -7112,7 +11426,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="2">
         <v>100</v>
       </c>
@@ -7170,7 +11484,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="18">
         <v>100</v>
       </c>
       <c r="B8" s="2">
@@ -7200,7 +11514,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="2">
         <v>75</v>
       </c>
@@ -7228,7 +11542,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="2">
         <v>100</v>
       </c>
@@ -7286,7 +11600,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="18">
         <v>200</v>
       </c>
       <c r="B12" s="2">
@@ -7316,7 +11630,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="2">
         <v>75</v>
       </c>
@@ -7344,7 +11658,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="2">
         <v>100</v>
       </c>
@@ -7402,7 +11716,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="18">
         <v>500</v>
       </c>
       <c r="B16" s="2">
@@ -7432,7 +11746,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="2">
         <v>75</v>
       </c>
@@ -7460,7 +11774,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2">
         <v>100</v>
       </c>
@@ -7585,7 +11899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B415D6B-E848-4B07-9099-31D65C6117F4}">
   <dimension ref="A1:N56"/>
   <sheetViews>
@@ -7600,30 +11914,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -7652,7 +11966,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="18">
         <v>50</v>
       </c>
       <c r="B4" s="2">
@@ -7682,7 +11996,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="2">
         <v>75</v>
       </c>
@@ -7710,7 +12024,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="2">
         <v>100</v>
       </c>
@@ -7768,7 +12082,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="18">
         <v>100</v>
       </c>
       <c r="B8" s="2">
@@ -7798,7 +12112,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="2">
         <v>75</v>
       </c>
@@ -7826,7 +12140,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="2">
         <v>100</v>
       </c>
@@ -7884,7 +12198,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="18">
         <v>200</v>
       </c>
       <c r="B12" s="2">
@@ -7914,7 +12228,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="2">
         <v>75</v>
       </c>
@@ -7942,7 +12256,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="2">
         <v>100</v>
       </c>
@@ -8000,7 +12314,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="18">
         <v>500</v>
       </c>
       <c r="B16" s="2">
@@ -8030,7 +12344,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="2">
         <v>75</v>
       </c>
@@ -8058,7 +12372,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2">
         <v>100</v>
       </c>
@@ -8116,7 +12430,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="18">
         <v>1000</v>
       </c>
       <c r="B20" s="2">
@@ -8146,7 +12460,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="2">
         <v>75</v>
       </c>
@@ -8183,7 +12497,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="2">
         <v>100</v>
       </c>
@@ -8287,30 +12601,30 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
@@ -8339,7 +12653,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
+      <c r="A35" s="18">
         <v>50</v>
       </c>
       <c r="B35" s="2">
@@ -8371,7 +12685,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="2">
         <v>75</v>
       </c>
@@ -8401,7 +12715,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="2">
         <v>100</v>
       </c>
@@ -8463,7 +12777,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
+      <c r="A39" s="18">
         <v>100</v>
       </c>
       <c r="B39" s="2">
@@ -8495,7 +12809,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="2">
         <v>75</v>
       </c>
@@ -8525,7 +12839,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="2">
         <v>100</v>
       </c>
@@ -8587,7 +12901,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
+      <c r="A43" s="18">
         <v>200</v>
       </c>
       <c r="B43" s="2">
@@ -8619,7 +12933,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="2">
         <v>75</v>
       </c>
@@ -8649,7 +12963,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="2">
         <v>100</v>
       </c>
@@ -8711,7 +13025,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
+      <c r="A47" s="18">
         <v>500</v>
       </c>
       <c r="B47" s="2">
@@ -8743,7 +13057,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="2">
         <v>75</v>
       </c>
@@ -8773,7 +13087,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="2">
         <v>100</v>
       </c>
@@ -8835,7 +13149,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="15">
+      <c r="A51" s="18">
         <v>1000</v>
       </c>
       <c r="B51" s="2">
@@ -8867,7 +13181,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="2">
         <v>75</v>
       </c>
@@ -8906,7 +13220,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="2">
         <v>100</v>
       </c>
@@ -9031,11 +13345,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DCC684-7664-4E92-8F50-059672B70BA9}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -9046,30 +13360,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -9098,7 +13412,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="18">
         <v>50</v>
       </c>
       <c r="B4" s="2">
@@ -9128,7 +13442,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="2">
         <v>75</v>
       </c>
@@ -9156,7 +13470,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="2">
         <v>100</v>
       </c>
@@ -9214,7 +13528,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="18">
         <v>100</v>
       </c>
       <c r="B8" s="2">
@@ -9244,7 +13558,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="2">
         <v>75</v>
       </c>
@@ -9272,7 +13586,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="2">
         <v>100</v>
       </c>
@@ -9330,7 +13644,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="18">
         <v>200</v>
       </c>
       <c r="B12" s="2">
@@ -9360,7 +13674,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="2">
         <v>75</v>
       </c>
@@ -9388,7 +13702,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="2">
         <v>100</v>
       </c>
@@ -9446,7 +13760,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="18">
         <v>500</v>
       </c>
       <c r="B16" s="2">
@@ -9476,7 +13790,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="2">
         <v>75</v>
       </c>
@@ -9504,7 +13818,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2">
         <v>100</v>
       </c>
@@ -9562,7 +13876,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="18">
         <v>1000</v>
       </c>
       <c r="B20" s="2">
@@ -9592,7 +13906,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="2">
         <v>75</v>
       </c>
@@ -9633,7 +13947,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="2">
         <v>100</v>
       </c>

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.O1.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.O1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBEA472-55A4-4C86-9F8A-621A00691106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABB8B7A-9330-4C26-A491-EFB340B60005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hip Spring Table" sheetId="7" r:id="rId1"/>
@@ -352,6 +352,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -360,9 +363,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8730,9 +8730,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8770,7 +8770,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8876,7 +8876,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9018,7 +9018,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9810,7 +9810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE4CACE-8930-4A19-BD8C-40BE91BF2E6C}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -9820,10 +9820,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -9870,30 +9870,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -9922,7 +9922,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="19">
         <v>50</v>
       </c>
       <c r="B4" s="2">
@@ -9952,7 +9952,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="2">
         <v>75</v>
       </c>
@@ -9980,7 +9980,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="2">
         <v>100</v>
       </c>
@@ -10038,7 +10038,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
         <v>100</v>
       </c>
       <c r="B8" s="2">
@@ -10068,7 +10068,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="2">
         <v>75</v>
       </c>
@@ -10096,7 +10096,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="2">
         <v>100</v>
       </c>
@@ -10154,7 +10154,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="19">
         <v>200</v>
       </c>
       <c r="B12" s="2">
@@ -10184,7 +10184,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2">
         <v>75</v>
       </c>
@@ -10212,7 +10212,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="2">
         <v>100</v>
       </c>
@@ -10270,7 +10270,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="19">
         <v>500</v>
       </c>
       <c r="B16" s="2">
@@ -10300,7 +10300,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="2">
         <v>75</v>
       </c>
@@ -10328,7 +10328,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="2">
         <v>100</v>
       </c>
@@ -10386,7 +10386,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="19">
         <v>1000</v>
       </c>
       <c r="B20" s="2">
@@ -10416,7 +10416,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="2">
         <v>75</v>
       </c>
@@ -10453,7 +10453,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="2">
         <v>100</v>
       </c>
@@ -10557,30 +10557,30 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20" t="s">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
@@ -10609,7 +10609,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
+      <c r="A35" s="19">
         <v>50</v>
       </c>
       <c r="B35" s="2">
@@ -10641,7 +10641,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="2">
         <v>75</v>
       </c>
@@ -10671,7 +10671,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="2">
         <v>100</v>
       </c>
@@ -10733,7 +10733,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
+      <c r="A39" s="19">
         <v>100</v>
       </c>
       <c r="B39" s="2">
@@ -10765,7 +10765,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="2">
         <v>75</v>
       </c>
@@ -10795,7 +10795,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="2">
         <v>100</v>
       </c>
@@ -10857,7 +10857,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="18">
+      <c r="A43" s="19">
         <v>200</v>
       </c>
       <c r="B43" s="2">
@@ -10889,7 +10889,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="2">
         <v>75</v>
       </c>
@@ -10919,7 +10919,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="2">
         <v>100</v>
       </c>
@@ -10981,7 +10981,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="18">
+      <c r="A47" s="19">
         <v>500</v>
       </c>
       <c r="B47" s="2">
@@ -11013,7 +11013,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="2">
         <v>75</v>
       </c>
@@ -11043,7 +11043,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="2">
         <v>100</v>
       </c>
@@ -11105,7 +11105,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="18">
+      <c r="A51" s="19">
         <v>1000</v>
       </c>
       <c r="B51" s="2">
@@ -11137,7 +11137,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="2">
         <v>75</v>
       </c>
@@ -11176,7 +11176,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="2">
         <v>100</v>
       </c>
@@ -11279,6 +11279,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A47:A49"/>
@@ -11289,12 +11295,6 @@
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11316,30 +11316,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -11368,7 +11368,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="19">
         <v>50</v>
       </c>
       <c r="B4" s="2">
@@ -11398,7 +11398,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="2">
         <v>75</v>
       </c>
@@ -11426,7 +11426,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="2">
         <v>100</v>
       </c>
@@ -11484,7 +11484,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
         <v>100</v>
       </c>
       <c r="B8" s="2">
@@ -11514,7 +11514,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="2">
         <v>75</v>
       </c>
@@ -11542,7 +11542,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="2">
         <v>100</v>
       </c>
@@ -11600,7 +11600,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="19">
         <v>200</v>
       </c>
       <c r="B12" s="2">
@@ -11630,7 +11630,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2">
         <v>75</v>
       </c>
@@ -11658,7 +11658,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="2">
         <v>100</v>
       </c>
@@ -11716,7 +11716,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="19">
         <v>500</v>
       </c>
       <c r="B16" s="2">
@@ -11746,7 +11746,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="2">
         <v>75</v>
       </c>
@@ -11774,7 +11774,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="2">
         <v>100</v>
       </c>
@@ -11914,30 +11914,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -11966,7 +11966,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="19">
         <v>50</v>
       </c>
       <c r="B4" s="2">
@@ -11996,7 +11996,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="2">
         <v>75</v>
       </c>
@@ -12024,7 +12024,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="2">
         <v>100</v>
       </c>
@@ -12082,7 +12082,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
         <v>100</v>
       </c>
       <c r="B8" s="2">
@@ -12112,7 +12112,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="2">
         <v>75</v>
       </c>
@@ -12140,7 +12140,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="2">
         <v>100</v>
       </c>
@@ -12198,7 +12198,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="19">
         <v>200</v>
       </c>
       <c r="B12" s="2">
@@ -12228,7 +12228,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2">
         <v>75</v>
       </c>
@@ -12256,7 +12256,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="2">
         <v>100</v>
       </c>
@@ -12314,7 +12314,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="19">
         <v>500</v>
       </c>
       <c r="B16" s="2">
@@ -12344,7 +12344,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="2">
         <v>75</v>
       </c>
@@ -12372,7 +12372,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="2">
         <v>100</v>
       </c>
@@ -12430,7 +12430,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="19">
         <v>1000</v>
       </c>
       <c r="B20" s="2">
@@ -12460,7 +12460,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="2">
         <v>75</v>
       </c>
@@ -12497,7 +12497,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="2">
         <v>100</v>
       </c>
@@ -12601,30 +12601,30 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20" t="s">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
@@ -12653,7 +12653,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
+      <c r="A35" s="19">
         <v>50</v>
       </c>
       <c r="B35" s="2">
@@ -12685,7 +12685,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="2">
         <v>75</v>
       </c>
@@ -12715,7 +12715,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="2">
         <v>100</v>
       </c>
@@ -12777,7 +12777,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
+      <c r="A39" s="19">
         <v>100</v>
       </c>
       <c r="B39" s="2">
@@ -12809,7 +12809,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="2">
         <v>75</v>
       </c>
@@ -12839,7 +12839,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="2">
         <v>100</v>
       </c>
@@ -12901,7 +12901,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="18">
+      <c r="A43" s="19">
         <v>200</v>
       </c>
       <c r="B43" s="2">
@@ -12933,7 +12933,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="2">
         <v>75</v>
       </c>
@@ -12963,7 +12963,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="2">
         <v>100</v>
       </c>
@@ -13025,7 +13025,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="18">
+      <c r="A47" s="19">
         <v>500</v>
       </c>
       <c r="B47" s="2">
@@ -13057,7 +13057,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="2">
         <v>75</v>
       </c>
@@ -13087,7 +13087,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="2">
         <v>100</v>
       </c>
@@ -13149,7 +13149,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="18">
+      <c r="A51" s="19">
         <v>1000</v>
       </c>
       <c r="B51" s="2">
@@ -13181,7 +13181,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="2">
         <v>75</v>
       </c>
@@ -13220,7 +13220,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="2">
         <v>100</v>
       </c>
@@ -13323,6 +13323,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A47:A49"/>
@@ -13333,12 +13339,6 @@
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13349,8 +13349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DCC684-7664-4E92-8F50-059672B70BA9}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13360,30 +13360,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -13412,7 +13412,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="19">
         <v>50</v>
       </c>
       <c r="B4" s="2">
@@ -13442,7 +13442,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="2">
         <v>75</v>
       </c>
@@ -13470,7 +13470,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="2">
         <v>100</v>
       </c>
@@ -13528,7 +13528,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
         <v>100</v>
       </c>
       <c r="B8" s="2">
@@ -13558,7 +13558,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="2">
         <v>75</v>
       </c>
@@ -13586,7 +13586,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="2">
         <v>100</v>
       </c>
@@ -13644,7 +13644,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="19">
         <v>200</v>
       </c>
       <c r="B12" s="2">
@@ -13674,7 +13674,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2">
         <v>75</v>
       </c>
@@ -13702,7 +13702,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="2">
         <v>100</v>
       </c>
@@ -13760,7 +13760,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="19">
         <v>500</v>
       </c>
       <c r="B16" s="2">
@@ -13790,7 +13790,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="2">
         <v>75</v>
       </c>
@@ -13818,7 +13818,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="2">
         <v>100</v>
       </c>
@@ -13876,7 +13876,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="19">
         <v>1000</v>
       </c>
       <c r="B20" s="2">
@@ -13906,7 +13906,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="2">
         <v>75</v>
       </c>
@@ -13947,7 +13947,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="2">
         <v>100</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>36</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="2"/>
+        <f>RADIANS(F25)</f>
         <v>0.62831853071795862</v>
       </c>
     </row>

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.O1.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/Adjustable Spiral Torsion Spring/3D Printed Torsion Spring Calculations.O1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\Adjustable Spiral Torsion Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABB8B7A-9330-4C26-A491-EFB340B60005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA840A8-5ECB-4E76-B654-DF946311F80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hip Spring Table" sheetId="7" r:id="rId1"/>
@@ -8730,9 +8730,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8770,7 +8770,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8876,7 +8876,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9018,7 +9018,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9859,8 +9859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19FA51E-490B-4725-BCC2-B1DF887C599A}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11279,12 +11279,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A47:A49"/>
@@ -11295,6 +11289,12 @@
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13323,12 +13323,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A47:A49"/>
@@ -13339,6 +13333,12 @@
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13349,7 +13349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DCC684-7664-4E92-8F50-059672B70BA9}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -13461,7 +13461,7 @@
         <v>0.09</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G25" si="2">RADIANS(F5)</f>
+        <f t="shared" ref="G5:G23" si="2">RADIANS(F5)</f>
         <v>1.5707963267948964E-3</v>
       </c>
       <c r="H5" s="5">
